--- a/analysis/data/derived_data/cores_spheroids_size.xlsx
+++ b/analysis/data/derived_data/cores_spheroids_size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE68ED3-4BC7-47D4-9AB4-2B27D0033ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D77FAB-AF3E-4FB7-A370-361A4E8C6697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24921CCD-865C-420E-8309-2465287C3FB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24921CCD-865C-420E-8309-2465287C3FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA7738-B53B-4664-A098-5C60863C5D22}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1506,6 +1506,18 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
+      <c r="I31" s="2">
+        <v>55.6</v>
+      </c>
+      <c r="J31" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="K31" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="L31" s="2">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="15.6">
       <c r="A32" s="3">
@@ -2586,6 +2598,62 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.6">
+      <c r="A92" s="2">
+        <v>54.2</v>
+      </c>
+      <c r="B92" s="2">
+        <v>51.1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>152.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.6">
+      <c r="A93" s="2">
+        <v>48.63</v>
+      </c>
+      <c r="B93" s="2">
+        <v>41</v>
+      </c>
+      <c r="C93" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="D93" s="2">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.6">
+      <c r="A94" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="B94" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="C94" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="D94" s="2">
+        <v>155.80000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.6">
+      <c r="A95" s="2">
+        <v>55.6</v>
+      </c>
+      <c r="B95" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="C95" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="D95" s="2">
+        <v>156.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/analysis/data/derived_data/cores_spheroids_size.xlsx
+++ b/analysis/data/derived_data/cores_spheroids_size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D77FAB-AF3E-4FB7-A370-361A4E8C6697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EAC86-C619-4195-8340-CD7340051D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24921CCD-865C-420E-8309-2465287C3FB0}"/>
   </bookViews>
@@ -115,7 +115,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -477,7 +476,7 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1297,16 +1296,16 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="2">
-        <v>46.4</v>
+        <v>96.7</v>
       </c>
       <c r="J24" s="2">
-        <v>31.8</v>
+        <v>65</v>
       </c>
       <c r="K24" s="2">
-        <v>31</v>
+        <v>60.9</v>
       </c>
       <c r="L24" s="2">
-        <v>64.400000000000006</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.6">
@@ -1327,16 +1326,16 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="2">
-        <v>83.4</v>
+        <v>46.4</v>
       </c>
       <c r="J25" s="2">
-        <v>67.8</v>
+        <v>31.8</v>
       </c>
       <c r="K25" s="2">
-        <v>59.6</v>
+        <v>31</v>
       </c>
       <c r="L25" s="2">
-        <v>442.5</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.6">
@@ -1357,16 +1356,16 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="2">
-        <v>58.6</v>
+        <v>83.4</v>
       </c>
       <c r="J26" s="2">
-        <v>54.6</v>
+        <v>67.8</v>
       </c>
       <c r="K26" s="2">
-        <v>51.8</v>
+        <v>59.6</v>
       </c>
       <c r="L26" s="2">
-        <v>210</v>
+        <v>442.5</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.6">
@@ -1387,16 +1386,16 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="2">
-        <v>97.3</v>
+        <v>58.6</v>
       </c>
       <c r="J27" s="2">
-        <v>65.599999999999994</v>
+        <v>54.6</v>
       </c>
       <c r="K27" s="2">
-        <v>54</v>
+        <v>51.8</v>
       </c>
       <c r="L27" s="2">
-        <v>594.1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.6">
@@ -1417,16 +1416,16 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="2">
-        <v>69.099999999999994</v>
+        <v>97.3</v>
       </c>
       <c r="J28" s="2">
-        <v>48.9</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="K28" s="2">
-        <v>45.9</v>
+        <v>54</v>
       </c>
       <c r="L28" s="2">
-        <v>223.7</v>
+        <v>594.1</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6">
@@ -1447,16 +1446,16 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="2">
-        <v>91.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="J29" s="2">
-        <v>63.3</v>
+        <v>48.9</v>
       </c>
       <c r="K29" s="2">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="L29" s="2">
-        <v>371.5</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6">
@@ -1477,16 +1476,16 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="2">
-        <v>47.2</v>
+        <v>91.1</v>
       </c>
       <c r="J30" s="2">
-        <v>36.6</v>
+        <v>63.3</v>
       </c>
       <c r="K30" s="2">
-        <v>34.700000000000003</v>
+        <v>45.8</v>
       </c>
       <c r="L30" s="2">
-        <v>113.8</v>
+        <v>371.5</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6">
@@ -1507,16 +1506,16 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="2">
-        <v>55.6</v>
+        <v>47.2</v>
       </c>
       <c r="J31" s="2">
-        <v>52.7</v>
+        <v>36.6</v>
       </c>
       <c r="K31" s="2">
-        <v>37.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="L31" s="2">
-        <v>156.1</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6">
@@ -2594,10 +2593,6 @@
       <c r="D91" s="3">
         <v>476.1</v>
       </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="2">

--- a/analysis/data/derived_data/cores_spheroids_size.xlsx
+++ b/analysis/data/derived_data/cores_spheroids_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EAC86-C619-4195-8340-CD7340051D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C71FF4-97F4-4E8F-8335-70F4F1907129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24921CCD-865C-420E-8309-2465287C3FB0}"/>
   </bookViews>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA7738-B53B-4664-A098-5C60863C5D22}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -991,10 +991,18 @@
       <c r="D14" s="2">
         <v>223.7</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" s="2">
+        <v>96.7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2">
+        <v>60.9</v>
+      </c>
+      <c r="H14" s="2">
+        <v>768</v>
+      </c>
       <c r="I14" s="3">
         <v>50.42</v>
       </c>
@@ -1296,16 +1304,16 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="2">
-        <v>96.7</v>
+        <v>46.4</v>
       </c>
       <c r="J24" s="2">
-        <v>65</v>
+        <v>31.8</v>
       </c>
       <c r="K24" s="2">
-        <v>60.9</v>
+        <v>31</v>
       </c>
       <c r="L24" s="2">
-        <v>768</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.6">
@@ -1326,16 +1334,16 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="2">
-        <v>46.4</v>
+        <v>83.4</v>
       </c>
       <c r="J25" s="2">
-        <v>31.8</v>
+        <v>67.8</v>
       </c>
       <c r="K25" s="2">
-        <v>31</v>
+        <v>59.6</v>
       </c>
       <c r="L25" s="2">
-        <v>64.400000000000006</v>
+        <v>442.5</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.6">
@@ -1356,16 +1364,16 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="2">
-        <v>83.4</v>
+        <v>58.6</v>
       </c>
       <c r="J26" s="2">
-        <v>67.8</v>
+        <v>54.6</v>
       </c>
       <c r="K26" s="2">
-        <v>59.6</v>
+        <v>51.8</v>
       </c>
       <c r="L26" s="2">
-        <v>442.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.6">
@@ -1386,16 +1394,16 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="2">
-        <v>58.6</v>
+        <v>97.3</v>
       </c>
       <c r="J27" s="2">
-        <v>54.6</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="K27" s="2">
-        <v>51.8</v>
+        <v>54</v>
       </c>
       <c r="L27" s="2">
-        <v>210</v>
+        <v>594.1</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.6">
@@ -1416,16 +1424,16 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="2">
-        <v>97.3</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="J28" s="2">
-        <v>65.599999999999994</v>
+        <v>48.9</v>
       </c>
       <c r="K28" s="2">
-        <v>54</v>
+        <v>45.9</v>
       </c>
       <c r="L28" s="2">
-        <v>594.1</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6">
@@ -1446,16 +1454,16 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="2">
-        <v>69.099999999999994</v>
+        <v>91.1</v>
       </c>
       <c r="J29" s="2">
-        <v>48.9</v>
+        <v>63.3</v>
       </c>
       <c r="K29" s="2">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="L29" s="2">
-        <v>223.7</v>
+        <v>371.5</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6">
@@ -1476,16 +1484,16 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="2">
-        <v>91.1</v>
+        <v>47.2</v>
       </c>
       <c r="J30" s="2">
-        <v>63.3</v>
+        <v>36.6</v>
       </c>
       <c r="K30" s="2">
-        <v>45.8</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="L30" s="2">
-        <v>371.5</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6">
@@ -1505,18 +1513,6 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="2">
-        <v>47.2</v>
-      </c>
-      <c r="J31" s="2">
-        <v>36.6</v>
-      </c>
-      <c r="K31" s="2">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="L31" s="2">
-        <v>113.8</v>
-      </c>
     </row>
     <row r="32" spans="1:12" ht="15.6">
       <c r="A32" s="3">

--- a/analysis/data/derived_data/cores_spheroids_size.xlsx
+++ b/analysis/data/derived_data/cores_spheroids_size.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C71FF4-97F4-4E8F-8335-70F4F1907129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B174F-967C-4908-9EA4-9A336676033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24921CCD-865C-420E-8309-2465287C3FB0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{24921CCD-865C-420E-8309-2465287C3FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>core_length</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,6 +83,157 @@
   <si>
     <t>multi_poly_weight</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polyhedron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0562</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multifacial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0570</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0576</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0579</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0682</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0699</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0700</t>
+  </si>
+  <si>
+    <t>QSY_A_0702</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0735</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_0938</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_1111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_1304</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_1307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_1333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_1517</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_1584</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_2049</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_2381</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_2599</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_A_2611</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_B_136</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_B_140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_B_159</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_B_168</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_B_186</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_B_320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_B_435</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness/length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>width/length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -91,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +255,8 @@
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,11 +269,43 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,6 +343,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,16 +673,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA7738-B53B-4664-A098-5C60863C5D22}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>96.7</v>
       </c>
@@ -560,7 +758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>46.4</v>
       </c>
@@ -598,7 +796,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>87.1</v>
       </c>
@@ -636,7 +834,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>83.4</v>
       </c>
@@ -674,7 +872,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6">
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>107.3</v>
       </c>
@@ -712,7 +910,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>58.6</v>
       </c>
@@ -750,7 +948,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44.2</v>
       </c>
@@ -788,7 +986,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>79.7</v>
       </c>
@@ -826,7 +1024,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>49.7</v>
       </c>
@@ -864,7 +1062,7 @@
         <v>775.2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>97.3</v>
       </c>
@@ -902,7 +1100,7 @@
         <v>497.3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>89.8</v>
       </c>
@@ -940,7 +1138,7 @@
         <v>232.3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45.1</v>
       </c>
@@ -978,7 +1176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>69.099999999999994</v>
       </c>
@@ -1016,7 +1214,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>72.7</v>
       </c>
@@ -1046,7 +1244,7 @@
         <v>469.9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>67.8</v>
       </c>
@@ -1076,7 +1274,7 @@
         <v>286.60000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>60.3</v>
       </c>
@@ -1106,7 +1304,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.6">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>73.900000000000006</v>
       </c>
@@ -1136,7 +1334,7 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.6">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>64.2</v>
       </c>
@@ -1166,7 +1364,7 @@
         <v>602.4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.6">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>91.1</v>
       </c>
@@ -1196,7 +1394,7 @@
         <v>130.1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.6">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44.7</v>
       </c>
@@ -1226,7 +1424,7 @@
         <v>668.5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.6">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>59.9</v>
       </c>
@@ -1256,7 +1454,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.6">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>47.2</v>
       </c>
@@ -1286,7 +1484,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.6">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>74.5</v>
       </c>
@@ -1316,7 +1514,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>72.099999999999994</v>
       </c>
@@ -1346,7 +1544,7 @@
         <v>442.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.6">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>100.18</v>
       </c>
@@ -1376,7 +1574,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.6">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>30.3</v>
       </c>
@@ -1406,7 +1604,7 @@
         <v>594.1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.6">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>86.2</v>
       </c>
@@ -1436,7 +1634,7 @@
         <v>223.7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.6">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45.35</v>
       </c>
@@ -1466,7 +1664,7 @@
         <v>371.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>52.43</v>
       </c>
@@ -1496,7 +1694,7 @@
         <v>113.8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>80.34</v>
       </c>
@@ -1514,7 +1712,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15.6">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>60.14</v>
       </c>
@@ -1532,7 +1730,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>38.19</v>
       </c>
@@ -1550,7 +1748,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>62.83</v>
       </c>
@@ -1568,7 +1766,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34.53</v>
       </c>
@@ -1586,7 +1784,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>42.19</v>
       </c>
@@ -1604,7 +1802,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>21.91</v>
       </c>
@@ -1622,7 +1820,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>51.45</v>
       </c>
@@ -1640,7 +1838,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>148.29</v>
       </c>
@@ -1658,7 +1856,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>40.71</v>
       </c>
@@ -1676,7 +1874,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>98.41</v>
       </c>
@@ -1694,7 +1892,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>79.900000000000006</v>
       </c>
@@ -1712,7 +1910,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>88.02</v>
       </c>
@@ -1730,7 +1928,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>72.040000000000006</v>
       </c>
@@ -1748,7 +1946,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>72.180000000000007</v>
       </c>
@@ -1766,7 +1964,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>49.7</v>
       </c>
@@ -1784,7 +1982,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>42.85</v>
       </c>
@@ -1802,7 +2000,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>29.27</v>
       </c>
@@ -1820,7 +2018,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>49.53</v>
       </c>
@@ -1838,7 +2036,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>28.8</v>
       </c>
@@ -1856,7 +2054,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>100.38</v>
       </c>
@@ -1874,7 +2072,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>129.9</v>
       </c>
@@ -1892,7 +2090,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>50.42</v>
       </c>
@@ -1910,7 +2108,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>74.95</v>
       </c>
@@ -1928,7 +2126,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>32.58</v>
       </c>
@@ -1946,7 +2144,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>77.47</v>
       </c>
@@ -1964,7 +2162,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>74.78</v>
       </c>
@@ -1982,7 +2180,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>60.63</v>
       </c>
@@ -2000,7 +2198,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
+    <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>65.430000000000007</v>
       </c>
@@ -2018,7 +2216,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
+    <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>49.42</v>
       </c>
@@ -2036,7 +2234,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>82.88</v>
       </c>
@@ -2054,7 +2252,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
+    <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>56.31</v>
       </c>
@@ -2072,7 +2270,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
+    <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>76.58</v>
       </c>
@@ -2090,7 +2288,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>71.53</v>
       </c>
@@ -2108,7 +2306,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>87.2</v>
       </c>
@@ -2126,7 +2324,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>86.04</v>
       </c>
@@ -2144,7 +2342,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>130.52000000000001</v>
       </c>
@@ -2162,7 +2360,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>20.58</v>
       </c>
@@ -2180,7 +2378,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>63.17</v>
       </c>
@@ -2198,7 +2396,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>174.66</v>
       </c>
@@ -2216,7 +2414,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>57.48</v>
       </c>
@@ -2234,7 +2432,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>83.23</v>
       </c>
@@ -2252,7 +2450,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>74.31</v>
       </c>
@@ -2270,7 +2468,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>86.82</v>
       </c>
@@ -2288,7 +2486,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>30.51</v>
       </c>
@@ -2306,7 +2504,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>154.55000000000001</v>
       </c>
@@ -2324,7 +2522,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>116.08</v>
       </c>
@@ -2342,7 +2540,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>137.69</v>
       </c>
@@ -2360,7 +2558,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>64.989999999999995</v>
       </c>
@@ -2378,7 +2576,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>112.91</v>
       </c>
@@ -2396,7 +2594,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>52.75</v>
       </c>
@@ -2414,7 +2612,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>93.53</v>
       </c>
@@ -2432,7 +2630,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>63.11</v>
       </c>
@@ -2450,7 +2648,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>59</v>
       </c>
@@ -2468,7 +2666,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>81.790000000000006</v>
       </c>
@@ -2486,7 +2684,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>29.08</v>
       </c>
@@ -2504,7 +2702,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>60.17</v>
       </c>
@@ -2522,7 +2720,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>26.36</v>
       </c>
@@ -2540,7 +2738,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>60.61</v>
       </c>
@@ -2558,7 +2756,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>83.02</v>
       </c>
@@ -2576,7 +2774,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>78.47</v>
       </c>
@@ -2590,7 +2788,7 @@
         <v>476.1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>54.2</v>
       </c>
@@ -2604,7 +2802,7 @@
         <v>152.1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>48.63</v>
       </c>
@@ -2618,7 +2816,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>48.2</v>
       </c>
@@ -2632,7 +2830,7 @@
         <v>155.80000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>55.6</v>
       </c>
@@ -2644,6 +2842,774 @@
       </c>
       <c r="D95" s="2">
         <v>156.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC05B060-11AB-4E37-BEE0-F53EFED1C9CB}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45.35</v>
+      </c>
+      <c r="D2" s="6">
+        <v>40.94</v>
+      </c>
+      <c r="E2" s="6">
+        <v>34.64</v>
+      </c>
+      <c r="F2" s="8">
+        <f>E2/C2</f>
+        <v>0.76383682469680259</v>
+      </c>
+      <c r="G2" s="8">
+        <f>D2/C2</f>
+        <v>0.90275633958103629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <v>38.19</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20.29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F14" si="0">E3/C3</f>
+        <v>0.42052893427598848</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G19" si="1">D3/C3</f>
+        <v>0.53129091385179372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6">
+        <v>62.83</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43.06</v>
+      </c>
+      <c r="E4" s="6">
+        <v>25.89</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41206430049339487</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.68534139742161393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6">
+        <v>34.53</v>
+      </c>
+      <c r="D5" s="6">
+        <v>32.03</v>
+      </c>
+      <c r="E5" s="6">
+        <v>21.4</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.61975094121054153</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.9275991891109181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42.19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>26.67</v>
+      </c>
+      <c r="E6" s="6">
+        <v>22.27</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.52785020146954253</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.63214031761080836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>21.91</v>
+      </c>
+      <c r="D7" s="6">
+        <v>16.64</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12.92</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58968507530807845</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.75947056138749436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
+        <v>148.29</v>
+      </c>
+      <c r="D8" s="6">
+        <v>147.74</v>
+      </c>
+      <c r="E8" s="6">
+        <v>121.17</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.81711511227999201</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.99629105131836282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>98.41</v>
+      </c>
+      <c r="D9" s="6">
+        <v>72.83</v>
+      </c>
+      <c r="E9" s="6">
+        <v>57.96</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5889645361243776</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.74006706635504527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>84.15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>82.22</v>
+      </c>
+      <c r="E10" s="6">
+        <v>72.11</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.85692216280451572</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.97706476530005937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D11" s="6">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="E11" s="6">
+        <v>55.01</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.68848560700876082</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.99136420525657054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>72.180000000000007</v>
+      </c>
+      <c r="D12" s="6">
+        <v>57.74</v>
+      </c>
+      <c r="E12" s="6">
+        <v>48.34</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66971460238293157</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.7999445829869769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>49.53</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73733091055925704</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83383807793256604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>50.42</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40.76</v>
+      </c>
+      <c r="E14" s="6">
+        <v>34.64</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.6870289567631892</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80840936136453778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
+        <v>77.47</v>
+      </c>
+      <c r="D15" s="6">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="E15" s="6">
+        <v>61.31</v>
+      </c>
+      <c r="F15" s="8">
+        <f>E15/C15</f>
+        <v>0.79140312378985422</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.94423647863689175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>74.78</v>
+      </c>
+      <c r="D16" s="6">
+        <v>72.260000000000005</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43.85</v>
+      </c>
+      <c r="F16" s="8">
+        <f>E16/C16</f>
+        <v>0.58638673442096823</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.96630115004011774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
+        <v>60.63</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45.67</v>
+      </c>
+      <c r="E17" s="6">
+        <v>34.43</v>
+      </c>
+      <c r="F17" s="8">
+        <f>E17/C17</f>
+        <v>0.56787069107702459</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.75325746330199572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6">
+        <v>71.53</v>
+      </c>
+      <c r="D18" s="6">
+        <v>54.51</v>
+      </c>
+      <c r="E18" s="6">
+        <v>33.46</v>
+      </c>
+      <c r="F18" s="8">
+        <f>E18/C18</f>
+        <v>0.46777575842303931</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.76205787781350476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6">
+        <v>86.04</v>
+      </c>
+      <c r="D19" s="6">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="E19" s="6">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="F19" s="8">
+        <f>E19/C19</f>
+        <v>0.80822873082287305</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.8950488145048815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>57.48</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45.37</v>
+      </c>
+      <c r="E20" s="6">
+        <v>31.37</v>
+      </c>
+      <c r="F20" s="8">
+        <f>E20/C20</f>
+        <v>0.54575504523312457</v>
+      </c>
+      <c r="G20" s="8">
+        <f>D20/C20</f>
+        <v>0.7893180236604036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6">
+        <v>112.91</v>
+      </c>
+      <c r="D21" s="6">
+        <v>70.66</v>
+      </c>
+      <c r="E21" s="6">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F21" s="8">
+        <f>E21/C21</f>
+        <v>0.58807900097422738</v>
+      </c>
+      <c r="G21" s="8">
+        <f>D21/C21</f>
+        <v>0.62580816579576648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6">
+        <v>81.790000000000006</v>
+      </c>
+      <c r="D22" s="6">
+        <v>66.62</v>
+      </c>
+      <c r="E22" s="6">
+        <v>57.42</v>
+      </c>
+      <c r="F22" s="8">
+        <f>E22/C22</f>
+        <v>0.70204181440273872</v>
+      </c>
+      <c r="G22" s="8">
+        <f>D22/C22</f>
+        <v>0.81452500305660835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="6">
+        <v>26.36</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="E23" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="F23" s="8">
+        <f>E23/C23</f>
+        <v>0.67147192716236725</v>
+      </c>
+      <c r="G23" s="8">
+        <f>D23/C23</f>
+        <v>0.77048558421851288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>31</v>
+      </c>
+      <c r="F24" s="8">
+        <f>E24/C24</f>
+        <v>0.6681034482758621</v>
+      </c>
+      <c r="G24" s="8">
+        <f>D24/C24</f>
+        <v>0.68534482758620696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>67.8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>59.6</v>
+      </c>
+      <c r="F25" s="8">
+        <f>E25/C25</f>
+        <v>0.71462829736211031</v>
+      </c>
+      <c r="G25" s="8">
+        <f>D25/C25</f>
+        <v>0.81294964028776973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>51.8</v>
+      </c>
+      <c r="F26" s="8">
+        <f>E26/C26</f>
+        <v>0.88395904436860062</v>
+      </c>
+      <c r="G26" s="8">
+        <f>D26/C26</f>
+        <v>0.93174061433447097</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>97.3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E27" s="2">
+        <v>54</v>
+      </c>
+      <c r="F27" s="8">
+        <f>E27/C27</f>
+        <v>0.55498458376156223</v>
+      </c>
+      <c r="G27" s="8">
+        <f>D27/C27</f>
+        <v>0.67420349434737925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D28" s="2">
+        <v>48.9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45.9</v>
+      </c>
+      <c r="F28" s="8">
+        <f>E28/C28</f>
+        <v>0.66425470332850944</v>
+      </c>
+      <c r="G28" s="8">
+        <f>D28/C28</f>
+        <v>0.70767004341534012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2">
+        <v>91.1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>63.3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="F29" s="8">
+        <f>E29/C29</f>
+        <v>0.5027442371020856</v>
+      </c>
+      <c r="G29" s="8">
+        <f>D29/C29</f>
+        <v>0.69484083424807908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2">
+        <v>47.2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F30" s="8">
+        <f>E30/C30</f>
+        <v>0.73516949152542377</v>
+      </c>
+      <c r="G30" s="8">
+        <f>D30/C30</f>
+        <v>0.77542372881355925</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/data/derived_data/cores_spheroids_size.xlsx
+++ b/analysis/data/derived_data/cores_spheroids_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1B174F-967C-4908-9EA4-9A336676033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3717B2F4-1944-4B0D-9B7C-416BE6540D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{24921CCD-865C-420E-8309-2465287C3FB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24921CCD-865C-420E-8309-2465287C3FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAA7738-B53B-4664-A098-5C60863C5D22}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -886,16 +886,16 @@
         <v>384.5</v>
       </c>
       <c r="E6" s="3">
-        <v>174.66</v>
+        <v>71.34</v>
       </c>
       <c r="F6" s="3">
-        <v>114.28</v>
+        <v>58.85</v>
       </c>
       <c r="G6" s="3">
-        <v>87.11</v>
+        <v>54.47</v>
       </c>
       <c r="H6" s="3">
-        <v>1800</v>
+        <v>316.8</v>
       </c>
       <c r="I6" s="3">
         <v>42.19</v>
@@ -924,16 +924,16 @@
         <v>210</v>
       </c>
       <c r="E7" s="3">
-        <v>71.34</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="F7" s="3">
-        <v>58.85</v>
+        <v>75.02</v>
       </c>
       <c r="G7" s="3">
-        <v>54.47</v>
+        <v>59.39</v>
       </c>
       <c r="H7" s="3">
-        <v>316.8</v>
+        <v>462.2</v>
       </c>
       <c r="I7" s="3">
         <v>21.91</v>
@@ -962,28 +962,28 @@
         <v>44.1</v>
       </c>
       <c r="E8" s="3">
-        <v>75.989999999999995</v>
+        <v>88.95</v>
       </c>
       <c r="F8" s="3">
-        <v>75.02</v>
+        <v>78.39</v>
       </c>
       <c r="G8" s="3">
-        <v>59.39</v>
+        <v>65.41</v>
       </c>
       <c r="H8" s="3">
-        <v>462.2</v>
+        <v>537.29999999999995</v>
       </c>
       <c r="I8" s="3">
-        <v>148.29</v>
+        <v>174.66</v>
       </c>
       <c r="J8" s="3">
-        <v>147.74</v>
+        <v>114.28</v>
       </c>
       <c r="K8" s="3">
-        <v>121.17</v>
+        <v>87.11</v>
       </c>
       <c r="L8" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -1000,16 +1000,16 @@
         <v>170</v>
       </c>
       <c r="E9" s="3">
-        <v>88.95</v>
+        <v>82.04</v>
       </c>
       <c r="F9" s="3">
-        <v>78.39</v>
+        <v>76.12</v>
       </c>
       <c r="G9" s="3">
-        <v>65.41</v>
+        <v>68.77</v>
       </c>
       <c r="H9" s="3">
-        <v>537.29999999999995</v>
+        <v>514.29999999999995</v>
       </c>
       <c r="I9" s="3">
         <v>98.41</v>
@@ -1038,16 +1038,16 @@
         <v>68.8</v>
       </c>
       <c r="E10" s="3">
-        <v>82.04</v>
+        <v>69.47</v>
       </c>
       <c r="F10" s="3">
-        <v>76.12</v>
+        <v>65.2</v>
       </c>
       <c r="G10" s="3">
-        <v>68.77</v>
+        <v>64.760000000000005</v>
       </c>
       <c r="H10" s="3">
-        <v>514.29999999999995</v>
+        <v>355</v>
       </c>
       <c r="I10" s="3">
         <v>84.15</v>
@@ -1075,17 +1075,17 @@
       <c r="D11" s="2">
         <v>594.1</v>
       </c>
-      <c r="E11" s="3">
-        <v>69.47</v>
-      </c>
-      <c r="F11" s="3">
-        <v>65.2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="H11" s="3">
-        <v>355</v>
+      <c r="E11" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>51.4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>221.6</v>
       </c>
       <c r="I11" s="3">
         <v>79.900000000000006</v>
@@ -1114,16 +1114,16 @@
         <v>328.4</v>
       </c>
       <c r="E12" s="2">
-        <v>65.7</v>
+        <v>135.4</v>
       </c>
       <c r="F12" s="2">
-        <v>51.4</v>
+        <v>113.9</v>
       </c>
       <c r="G12" s="2">
-        <v>39.4</v>
+        <v>111.8</v>
       </c>
       <c r="H12" s="2">
-        <v>221.6</v>
+        <v>2580</v>
       </c>
       <c r="I12" s="3">
         <v>72.180000000000007</v>
@@ -1152,16 +1152,16 @@
         <v>40.799999999999997</v>
       </c>
       <c r="E13" s="2">
-        <v>135.4</v>
+        <v>96.7</v>
       </c>
       <c r="F13" s="2">
-        <v>113.9</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2">
-        <v>111.8</v>
+        <v>60.9</v>
       </c>
       <c r="H13" s="2">
-        <v>2580</v>
+        <v>768</v>
       </c>
       <c r="I13" s="3">
         <v>49.53</v>
@@ -1189,17 +1189,17 @@
       <c r="D14" s="2">
         <v>223.7</v>
       </c>
-      <c r="E14" s="2">
-        <v>96.7</v>
-      </c>
-      <c r="F14" s="2">
-        <v>65</v>
-      </c>
-      <c r="G14" s="2">
-        <v>60.9</v>
-      </c>
-      <c r="H14" s="2">
-        <v>768</v>
+      <c r="E14" s="3">
+        <v>148.29</v>
+      </c>
+      <c r="F14" s="3">
+        <v>147.74</v>
+      </c>
+      <c r="G14" s="3">
+        <v>121.17</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2000</v>
       </c>
       <c r="I14" s="3">
         <v>50.42</v>
@@ -2769,10 +2769,6 @@
       <c r="D90" s="3">
         <v>260.39999999999998</v>
       </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
@@ -2854,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC05B060-11AB-4E37-BEE0-F53EFED1C9CB}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3229,7 +3225,7 @@
         <v>61.31</v>
       </c>
       <c r="F15" s="8">
-        <f>E15/C15</f>
+        <f t="shared" ref="F15:F30" si="2">E15/C15</f>
         <v>0.79140312378985422</v>
       </c>
       <c r="G15" s="8">
@@ -3254,7 +3250,7 @@
         <v>43.85</v>
       </c>
       <c r="F16" s="8">
-        <f>E16/C16</f>
+        <f t="shared" si="2"/>
         <v>0.58638673442096823</v>
       </c>
       <c r="G16" s="8">
@@ -3279,7 +3275,7 @@
         <v>34.43</v>
       </c>
       <c r="F17" s="8">
-        <f>E17/C17</f>
+        <f t="shared" si="2"/>
         <v>0.56787069107702459</v>
       </c>
       <c r="G17" s="8">
@@ -3304,7 +3300,7 @@
         <v>33.46</v>
       </c>
       <c r="F18" s="8">
-        <f>E18/C18</f>
+        <f t="shared" si="2"/>
         <v>0.46777575842303931</v>
       </c>
       <c r="G18" s="8">
@@ -3329,7 +3325,7 @@
         <v>69.540000000000006</v>
       </c>
       <c r="F19" s="8">
-        <f>E19/C19</f>
+        <f t="shared" si="2"/>
         <v>0.80822873082287305</v>
       </c>
       <c r="G19" s="8">
@@ -3354,11 +3350,11 @@
         <v>31.37</v>
       </c>
       <c r="F20" s="8">
-        <f>E20/C20</f>
+        <f t="shared" si="2"/>
         <v>0.54575504523312457</v>
       </c>
       <c r="G20" s="8">
-        <f>D20/C20</f>
+        <f t="shared" ref="G20:G30" si="3">D20/C20</f>
         <v>0.7893180236604036</v>
       </c>
     </row>
@@ -3379,11 +3375,11 @@
         <v>66.400000000000006</v>
       </c>
       <c r="F21" s="8">
-        <f>E21/C21</f>
+        <f t="shared" si="2"/>
         <v>0.58807900097422738</v>
       </c>
       <c r="G21" s="8">
-        <f>D21/C21</f>
+        <f t="shared" si="3"/>
         <v>0.62580816579576648</v>
       </c>
     </row>
@@ -3404,11 +3400,11 @@
         <v>57.42</v>
       </c>
       <c r="F22" s="8">
-        <f>E22/C22</f>
+        <f t="shared" si="2"/>
         <v>0.70204181440273872</v>
       </c>
       <c r="G22" s="8">
-        <f>D22/C22</f>
+        <f t="shared" si="3"/>
         <v>0.81452500305660835</v>
       </c>
     </row>
@@ -3429,11 +3425,11 @@
         <v>17.7</v>
       </c>
       <c r="F23" s="8">
-        <f>E23/C23</f>
+        <f t="shared" si="2"/>
         <v>0.67147192716236725</v>
       </c>
       <c r="G23" s="8">
-        <f>D23/C23</f>
+        <f t="shared" si="3"/>
         <v>0.77048558421851288</v>
       </c>
     </row>
@@ -3454,11 +3450,11 @@
         <v>31</v>
       </c>
       <c r="F24" s="8">
-        <f>E24/C24</f>
+        <f t="shared" si="2"/>
         <v>0.6681034482758621</v>
       </c>
       <c r="G24" s="8">
-        <f>D24/C24</f>
+        <f t="shared" si="3"/>
         <v>0.68534482758620696</v>
       </c>
     </row>
@@ -3479,11 +3475,11 @@
         <v>59.6</v>
       </c>
       <c r="F25" s="8">
-        <f>E25/C25</f>
+        <f t="shared" si="2"/>
         <v>0.71462829736211031</v>
       </c>
       <c r="G25" s="8">
-        <f>D25/C25</f>
+        <f t="shared" si="3"/>
         <v>0.81294964028776973</v>
       </c>
     </row>
@@ -3504,11 +3500,11 @@
         <v>51.8</v>
       </c>
       <c r="F26" s="8">
-        <f>E26/C26</f>
+        <f t="shared" si="2"/>
         <v>0.88395904436860062</v>
       </c>
       <c r="G26" s="8">
-        <f>D26/C26</f>
+        <f t="shared" si="3"/>
         <v>0.93174061433447097</v>
       </c>
     </row>
@@ -3529,11 +3525,11 @@
         <v>54</v>
       </c>
       <c r="F27" s="8">
-        <f>E27/C27</f>
+        <f t="shared" si="2"/>
         <v>0.55498458376156223</v>
       </c>
       <c r="G27" s="8">
-        <f>D27/C27</f>
+        <f t="shared" si="3"/>
         <v>0.67420349434737925</v>
       </c>
     </row>
@@ -3554,11 +3550,11 @@
         <v>45.9</v>
       </c>
       <c r="F28" s="8">
-        <f>E28/C28</f>
+        <f t="shared" si="2"/>
         <v>0.66425470332850944</v>
       </c>
       <c r="G28" s="8">
-        <f>D28/C28</f>
+        <f t="shared" si="3"/>
         <v>0.70767004341534012</v>
       </c>
     </row>
@@ -3579,11 +3575,11 @@
         <v>45.8</v>
       </c>
       <c r="F29" s="8">
-        <f>E29/C29</f>
+        <f t="shared" si="2"/>
         <v>0.5027442371020856</v>
       </c>
       <c r="G29" s="8">
-        <f>D29/C29</f>
+        <f t="shared" si="3"/>
         <v>0.69484083424807908</v>
       </c>
     </row>
@@ -3604,11 +3600,11 @@
         <v>34.700000000000003</v>
       </c>
       <c r="F30" s="8">
-        <f>E30/C30</f>
+        <f t="shared" si="2"/>
         <v>0.73516949152542377</v>
       </c>
       <c r="G30" s="8">
-        <f>D30/C30</f>
+        <f t="shared" si="3"/>
         <v>0.77542372881355925</v>
       </c>
     </row>
